--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91E852-753D-474A-A212-49690273C1C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6C4AA-B5B2-467F-96BC-66FF2A5CA323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="28">
-  <si>
-    <t>进度表-旅游网的设计与实现</t>
-  </si>
   <si>
     <t>整体模块</t>
   </si>
@@ -127,6 +124,10 @@
   </si>
   <si>
     <t>退出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度表-宿舍管理的设计与实现</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +626,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -642,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -654,36 +655,36 @@
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -696,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -714,14 +715,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -730,14 +731,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -746,14 +747,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -762,14 +763,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -778,14 +779,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -794,14 +795,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -810,14 +811,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -826,14 +827,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -842,14 +843,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -858,14 +859,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -874,14 +875,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -890,14 +891,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -906,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -922,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1909,7 +1910,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1927,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1938,36 +1939,36 @@
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -1980,16 +1981,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1998,14 +1999,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2014,14 +2015,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2030,14 +2031,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2046,14 +2047,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -2062,14 +2063,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2078,14 +2079,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -2094,14 +2095,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2110,14 +2111,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2126,14 +2127,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -2142,14 +2143,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2158,14 +2159,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -2174,14 +2175,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2190,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2206,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -3193,7 +3194,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3210,7 +3211,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3222,36 +3223,36 @@
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -3264,16 +3265,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -3282,14 +3283,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3298,14 +3299,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3314,14 +3315,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3330,14 +3331,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -3346,14 +3347,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3362,14 +3363,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -3378,14 +3379,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3394,14 +3395,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3410,14 +3411,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -3426,14 +3427,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3442,14 +3443,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -3458,14 +3459,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3474,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3490,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -4477,7 +4478,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4495,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4506,36 +4507,36 @@
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -4548,16 +4549,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -4566,14 +4567,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4582,14 +4583,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4598,14 +4599,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4614,14 +4615,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -4630,14 +4631,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4646,14 +4647,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -4662,14 +4663,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4678,14 +4679,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4694,14 +4695,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -4710,14 +4711,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4726,14 +4727,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -4742,14 +4743,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4758,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4774,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -5761,7 +5762,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5778,7 +5779,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -5790,36 +5791,36 @@
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
@@ -5832,16 +5833,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -5850,14 +5851,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5866,14 +5867,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5882,14 +5883,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5898,14 +5899,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -5914,14 +5915,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5930,14 +5931,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -5946,14 +5947,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5962,14 +5963,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5978,14 +5979,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -5994,14 +5995,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -6010,14 +6011,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -6026,14 +6027,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6042,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6058,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
     </row>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91E852-753D-474A-A212-49690273C1C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F374FF4-D0E9-4597-94CC-0265AE04710F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">黄之贤!$G$17:$G$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">夏晨青!$G$17:$G$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">赵檬!$G$17:$G$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">周文伟!$G$17:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">周文伟!$G$18:$G$18</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="30">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -129,6 +129,14 @@
     <t>退出</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>准备工作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架搭建</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -288,6 +296,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -297,7 +318,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +365,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3190,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE6D36-C8DB-4271-9DAE-885B220187A5}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3247,8 +3274,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
+      <c r="A3" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -3268,31 +3295,35 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="10">
         <v>0</v>
@@ -3305,7 +3336,7 @@
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3321,7 +3352,7 @@
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3337,10 +3368,10 @@
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="10">
         <v>0</v>
@@ -3353,10 +3384,10 @@
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="10">
         <v>0</v>
@@ -3369,10 +3400,10 @@
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="10">
         <v>0</v>
@@ -3385,10 +3416,10 @@
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="10">
         <v>0</v>
@@ -3401,7 +3432,7 @@
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3417,10 +3448,10 @@
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="10">
         <v>0</v>
@@ -3433,10 +3464,10 @@
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="10">
         <v>0</v>
@@ -3449,10 +3480,10 @@
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="10">
         <v>0</v>
@@ -3465,10 +3496,10 @@
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="10">
         <v>0</v>
@@ -3479,13 +3510,13 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="10">
         <v>0</v>
       </c>
@@ -3494,15 +3525,21 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -4410,8 +4447,8 @@
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -4444,26 +4481,37 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
+    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G17" xr:uid="{B8928D55-C832-45DF-9818-3C4D3E5FEF65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G18" xr:uid="{B8928D55-C832-45DF-9818-3C4D3E5FEF65}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -119,8 +119,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -164,17 +164,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,84 +192,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,6 +217,101 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -323,12 +323,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +340,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,25 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,13 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +424,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,19 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,48 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,41 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -668,8 +633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,6 +662,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -705,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,136 +717,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -6806,7 +6806,9 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>43662</v>
+      </c>
       <c r="F4" s="9">
         <v>1</v>
       </c>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -119,8 +119,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -165,17 +165,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,32 +179,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +205,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -248,7 +222,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +230,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,15 +260,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +282,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,9 +297,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -328,7 +328,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,91 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,49 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -615,6 +624,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -626,24 +670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,34 +692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,16 +717,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,118 +735,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1225,19 +1225,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1621,7 +1621,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1631,7 +1631,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1641,7 +1641,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1651,7 +1651,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1661,7 +1661,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1671,7 +1671,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1681,7 +1681,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1691,7 +1691,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1701,7 +1701,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1711,7 +1711,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1721,7 +1721,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1731,7 +1731,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1741,7 +1741,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1751,7 +1751,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1761,7 +1761,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1771,7 +1771,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1781,7 +1781,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1791,7 +1791,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1801,7 +1801,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1811,7 +1811,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1821,7 +1821,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1831,7 +1831,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1841,7 +1841,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1851,7 +1851,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1861,7 +1861,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1871,7 +1871,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1881,7 +1881,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1891,7 +1891,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1901,7 +1901,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1911,7 +1911,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1921,7 +1921,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1931,7 +1931,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1941,7 +1941,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -1951,7 +1951,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -1961,7 +1961,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -1971,7 +1971,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -1981,7 +1981,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1991,7 +1991,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2001,7 +2001,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2011,7 +2011,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2021,7 +2021,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2031,7 +2031,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2041,7 +2041,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2051,7 +2051,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2061,7 +2061,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2071,7 +2071,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2081,7 +2081,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2091,7 +2091,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2101,7 +2101,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2111,7 +2111,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2121,7 +2121,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2131,7 +2131,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2141,7 +2141,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -2151,7 +2151,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -2161,7 +2161,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -2171,7 +2171,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -2181,7 +2181,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -2191,7 +2191,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -2201,7 +2201,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2211,7 +2211,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2221,7 +2221,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2231,7 +2231,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2241,7 +2241,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2251,7 +2251,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2261,7 +2261,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2271,7 +2271,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2281,7 +2281,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2291,7 +2291,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2301,7 +2301,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2311,7 +2311,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2321,7 +2321,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2331,7 +2331,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2341,7 +2341,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2351,7 +2351,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2361,7 +2361,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2371,7 +2371,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2381,7 +2381,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2391,7 +2391,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2401,7 +2401,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2411,7 +2411,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2421,7 +2421,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2431,7 +2431,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2441,7 +2441,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2451,7 +2451,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2461,7 +2461,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2471,7 +2471,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2481,7 +2481,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2491,7 +2491,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2501,7 +2501,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2511,7 +2511,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2521,7 +2521,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2531,7 +2531,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2541,7 +2541,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2551,7 +2551,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2561,16 +2561,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -2596,23 +2596,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="G4 H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -2680,17 +2680,21 @@
         <v>13</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7">
+        <v>43663</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43663</v>
+      </c>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2706,7 +2710,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2722,7 +2726,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -2738,7 +2742,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2754,7 +2758,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -2770,7 +2774,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -2786,7 +2790,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -2802,7 +2806,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -2818,7 +2822,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -2834,7 +2838,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -2850,7 +2854,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -2868,7 +2872,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -2884,7 +2888,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -2900,7 +2904,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -2916,7 +2920,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -2934,7 +2938,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -2950,7 +2954,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -2966,7 +2970,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -2982,7 +2986,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2992,7 +2996,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3002,7 +3006,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3012,7 +3016,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3022,7 +3026,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3032,7 +3036,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3042,7 +3046,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3052,7 +3056,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3062,7 +3066,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3072,7 +3076,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3082,7 +3086,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3092,7 +3096,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3102,7 +3106,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3112,7 +3116,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3122,7 +3126,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3132,7 +3136,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3142,7 +3146,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3152,7 +3156,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3162,7 +3166,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3172,7 +3176,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3182,7 +3186,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3192,7 +3196,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3202,7 +3206,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3212,7 +3216,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3222,7 +3226,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3232,7 +3236,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3242,7 +3246,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -3252,7 +3256,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -3262,7 +3266,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -3272,7 +3276,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -3282,7 +3286,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -3292,7 +3296,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3302,7 +3306,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3312,7 +3316,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3322,7 +3326,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3332,7 +3336,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3342,7 +3346,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3352,7 +3356,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3362,7 +3366,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3372,7 +3376,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3382,7 +3386,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3392,7 +3396,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3402,7 +3406,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3412,7 +3416,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3422,7 +3426,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3432,7 +3436,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3442,7 +3446,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3452,7 +3456,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3462,7 +3466,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3472,7 +3476,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3482,7 +3486,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3492,7 +3496,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3502,7 +3506,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3512,7 +3516,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3522,7 +3526,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3532,7 +3536,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3542,7 +3546,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3552,7 +3556,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3562,7 +3566,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3572,7 +3576,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3582,7 +3586,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3592,7 +3596,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3602,7 +3606,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3612,7 +3616,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3622,7 +3626,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3632,7 +3636,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3642,7 +3646,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -3652,7 +3656,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -3662,7 +3666,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3672,7 +3676,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3682,7 +3686,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -3692,7 +3696,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -3702,7 +3706,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -3712,7 +3716,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -3722,7 +3726,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -3732,7 +3736,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -3742,7 +3746,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -3752,7 +3756,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -3762,7 +3766,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -3772,7 +3776,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -3782,7 +3786,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -3792,7 +3796,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -3802,7 +3806,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3812,7 +3816,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -3822,7 +3826,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -3832,7 +3836,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3842,7 +3846,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3852,7 +3856,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -3862,7 +3866,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3872,7 +3876,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -3882,7 +3886,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -3892,7 +3896,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -3902,7 +3906,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -3912,7 +3916,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -3922,7 +3926,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -3932,16 +3936,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -3971,19 +3975,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4047,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4065,7 +4069,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -4081,7 +4085,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -4097,7 +4101,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -4113,7 +4117,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -4129,7 +4133,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -4145,7 +4149,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -4161,7 +4165,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -4177,7 +4181,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -4193,7 +4197,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -4209,7 +4213,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -4225,7 +4229,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -4243,7 +4247,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -4259,7 +4263,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -4275,7 +4279,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -4291,7 +4295,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -4309,7 +4313,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -4325,7 +4329,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -4341,7 +4345,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -4357,7 +4361,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4367,7 +4371,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4377,7 +4381,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -4387,7 +4391,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -4397,7 +4401,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4407,7 +4411,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4417,7 +4421,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4427,7 +4431,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -4437,7 +4441,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4447,7 +4451,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -4457,7 +4461,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4467,7 +4471,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4477,7 +4481,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4487,7 +4491,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -4497,7 +4501,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4507,7 +4511,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4517,7 +4521,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4527,7 +4531,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -4537,7 +4541,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4547,7 +4551,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4557,7 +4561,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4567,7 +4571,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4577,7 +4581,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4587,7 +4591,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -4597,7 +4601,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4607,7 +4611,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -4617,7 +4621,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4627,7 +4631,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4637,7 +4641,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4647,7 +4651,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4657,7 +4661,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4667,7 +4671,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -4677,7 +4681,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -4687,7 +4691,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4697,7 +4701,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -4707,7 +4711,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -4717,7 +4721,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -4727,7 +4731,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -4737,7 +4741,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -4747,7 +4751,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -4757,7 +4761,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -4767,7 +4771,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4777,7 +4781,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -4787,7 +4791,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -4797,7 +4801,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -4807,7 +4811,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -4817,7 +4821,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -4827,7 +4831,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -4837,7 +4841,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -4847,7 +4851,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -4857,7 +4861,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -4867,7 +4871,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -4877,7 +4881,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -4887,7 +4891,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -4897,7 +4901,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -4907,7 +4911,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -4917,7 +4921,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -4927,7 +4931,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -4937,7 +4941,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -4947,7 +4951,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -4957,7 +4961,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -4967,7 +4971,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -4977,7 +4981,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -4987,7 +4991,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -4997,7 +5001,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -5007,7 +5011,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -5017,7 +5021,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -5027,7 +5031,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -5037,7 +5041,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -5047,7 +5051,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -5057,7 +5061,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -5067,7 +5071,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -5077,7 +5081,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -5087,7 +5091,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -5097,7 +5101,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -5107,7 +5111,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -5117,7 +5121,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -5127,7 +5131,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -5137,7 +5141,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -5147,7 +5151,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -5157,7 +5161,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -5167,7 +5171,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -5177,7 +5181,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -5187,7 +5191,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -5197,7 +5201,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -5207,7 +5211,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -5217,7 +5221,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5227,7 +5231,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -5237,7 +5241,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -5247,7 +5251,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -5257,7 +5261,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5267,7 +5271,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5277,7 +5281,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5287,7 +5291,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5297,7 +5301,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -5307,16 +5311,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -5346,19 +5350,19 @@
       <selection activeCell="H11" sqref="B5 H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5418,7 +5422,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -5440,7 +5444,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -5460,7 +5464,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -5476,7 +5480,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -5492,7 +5496,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -5508,7 +5512,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -5524,7 +5528,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -5540,7 +5544,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -5556,7 +5560,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -5572,7 +5576,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -5588,7 +5592,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -5604,7 +5608,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -5622,7 +5626,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -5638,7 +5642,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -5654,7 +5658,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -5670,7 +5674,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -5688,7 +5692,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -5704,7 +5708,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -5720,7 +5724,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -5736,7 +5740,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -5746,7 +5750,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -5756,7 +5760,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5766,7 +5770,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5776,7 +5780,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -5786,7 +5790,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -5796,7 +5800,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5806,7 +5810,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5816,7 +5820,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5826,7 +5830,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5836,7 +5840,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5846,7 +5850,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5856,7 +5860,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5866,7 +5870,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5876,7 +5880,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5886,7 +5890,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5896,7 +5900,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -5906,7 +5910,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -5916,7 +5920,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5926,7 +5930,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5936,7 +5940,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -5946,7 +5950,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -5956,7 +5960,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -5966,7 +5970,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -5976,7 +5980,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -5986,7 +5990,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -5996,7 +6000,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6006,7 +6010,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6016,7 +6020,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6026,7 +6030,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6036,7 +6040,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6046,7 +6050,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6056,7 +6060,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6066,7 +6070,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6076,7 +6080,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6086,7 +6090,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6096,7 +6100,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -6106,7 +6110,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -6116,7 +6120,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -6126,7 +6130,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -6136,7 +6140,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -6146,7 +6150,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -6156,7 +6160,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -6166,7 +6170,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -6176,7 +6180,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -6186,7 +6190,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -6196,7 +6200,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -6206,7 +6210,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -6216,7 +6220,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -6226,7 +6230,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -6236,7 +6240,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -6246,7 +6250,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -6256,7 +6260,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -6266,7 +6270,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -6276,7 +6280,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -6286,7 +6290,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -6296,7 +6300,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -6306,7 +6310,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -6316,7 +6320,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -6326,7 +6330,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -6336,7 +6340,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -6346,7 +6350,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -6356,7 +6360,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -6366,7 +6370,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -6376,7 +6380,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -6386,7 +6390,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -6396,7 +6400,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -6406,7 +6410,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -6416,7 +6420,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -6426,7 +6430,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -6436,7 +6440,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -6446,7 +6450,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -6456,7 +6460,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -6466,7 +6470,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -6476,7 +6480,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -6486,7 +6490,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -6496,7 +6500,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -6506,7 +6510,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -6516,7 +6520,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -6526,7 +6530,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -6536,7 +6540,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -6546,7 +6550,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -6556,7 +6560,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -6566,7 +6570,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -6576,7 +6580,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -6586,7 +6590,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -6596,7 +6600,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -6606,7 +6610,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -6616,7 +6620,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -6626,7 +6630,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -6636,7 +6640,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -6646,7 +6650,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -6656,7 +6660,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -6666,7 +6670,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -6676,7 +6680,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -6686,16 +6690,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -6721,23 +6725,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6797,7 +6801,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -6817,7 +6821,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -6833,7 +6837,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -6849,7 +6853,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -6865,7 +6869,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -6881,7 +6885,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -6897,7 +6901,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -6913,7 +6917,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -6929,7 +6933,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -6945,7 +6949,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -6961,7 +6965,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -6977,7 +6981,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -6995,7 +6999,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -7011,7 +7015,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -7027,7 +7031,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -7043,7 +7047,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -7061,7 +7065,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -7077,7 +7081,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -7093,7 +7097,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -7109,7 +7113,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7119,7 +7123,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7129,7 +7133,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7139,7 +7143,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -7149,7 +7153,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7159,7 +7163,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -7169,7 +7173,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -7179,7 +7183,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -7189,7 +7193,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -7199,7 +7203,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -7209,7 +7213,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7219,7 +7223,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7229,7 +7233,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7239,7 +7243,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -7249,7 +7253,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -7259,7 +7263,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -7269,7 +7273,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7279,7 +7283,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7289,7 +7293,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7299,7 +7303,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -7309,7 +7313,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7319,7 +7323,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -7329,7 +7333,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7339,7 +7343,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -7349,7 +7353,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7359,7 +7363,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7369,7 +7373,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -7379,7 +7383,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -7389,7 +7393,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -7399,7 +7403,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -7409,7 +7413,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -7419,7 +7423,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -7429,7 +7433,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -7439,7 +7443,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -7449,7 +7453,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -7459,7 +7463,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -7469,7 +7473,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -7479,7 +7483,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -7489,7 +7493,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -7499,7 +7503,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -7509,7 +7513,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -7519,7 +7523,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -7529,7 +7533,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -7539,7 +7543,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -7549,7 +7553,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -7559,7 +7563,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -7569,7 +7573,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -7579,7 +7583,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -7589,7 +7593,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -7599,7 +7603,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -7609,7 +7613,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -7619,7 +7623,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -7629,7 +7633,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -7639,7 +7643,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -7649,7 +7653,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -7659,7 +7663,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -7669,7 +7673,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -7679,7 +7683,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -7689,7 +7693,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -7699,7 +7703,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -7709,7 +7713,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -7719,7 +7723,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -7729,7 +7733,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -7739,7 +7743,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -7749,7 +7753,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -7759,7 +7763,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -7769,7 +7773,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -7779,7 +7783,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -7789,7 +7793,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -7799,7 +7803,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -7809,7 +7813,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -7819,7 +7823,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -7829,7 +7833,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -7839,7 +7843,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -7849,7 +7853,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -7859,7 +7863,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -7869,7 +7873,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -7879,7 +7883,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -7889,7 +7893,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -7899,7 +7903,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -7909,7 +7913,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -7919,7 +7923,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -7929,7 +7933,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -7939,7 +7943,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -7949,7 +7953,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -7959,7 +7963,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -7969,7 +7973,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -7979,7 +7983,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -7989,7 +7993,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -7999,7 +8003,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -8009,7 +8013,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -8019,7 +8023,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -8029,7 +8033,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -8039,7 +8043,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -8049,7 +8053,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -8059,16 +8063,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -165,34 +165,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +223,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -220,19 +231,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,15 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -274,16 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,17 +285,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,25 +328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +364,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,67 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +454,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,43 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,11 +600,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,26 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -659,41 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,16 +717,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,118 +735,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2597,7 +2597,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="G4 H8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2844,13 +2844,17 @@
         <v>24</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7">
+        <v>43663</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43663</v>
+      </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E42AF-812A-41B1-B843-E8BFDE89A9BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A3AE0-1A70-4264-9CF8-6A530AC7DE11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7956" yWindow="456" windowWidth="14076" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +321,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,18 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -643,16 +646,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -703,7 +706,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -725,7 +728,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -741,7 +744,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -773,7 +776,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -789,7 +792,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -805,7 +808,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -821,7 +824,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -837,7 +840,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -853,23 +856,27 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43663</v>
+      </c>
       <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -889,7 +896,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -907,7 +914,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -923,23 +930,27 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43663</v>
+      </c>
       <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -959,41 +970,49 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E19" s="6">
+        <v>43663</v>
+      </c>
       <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E20" s="6">
+        <v>43663</v>
+      </c>
       <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -2029,16 +2048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2089,7 +2108,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2111,7 +2130,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2146,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2143,7 +2162,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2159,7 +2178,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2194,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2191,7 +2210,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2207,7 +2226,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2242,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2258,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -2259,7 +2278,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -2279,7 +2298,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2297,7 +2316,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2332,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2352,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -2353,7 +2372,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2371,7 +2390,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -2391,7 +2410,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3410,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3427,16 +3446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3472,342 +3491,342 @@
         <v>10</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>43662</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>43662</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>43662</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>43662</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>43663</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>43663</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20">
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="20">
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="20">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="20">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>43663</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>43663</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>43663</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>43663</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>1</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="20">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16">
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="20">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16">
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>43663</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>43663</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>1</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>43663</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>43663</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <v>1</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="20">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16">
         <v>0</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>43663</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>43663</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>1</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>43663</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>43663</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="16">
         <v>1</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="5"/>
@@ -3818,12 +3837,12 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16">
         <v>0</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="5"/>
@@ -4829,16 +4848,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4889,7 +4908,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4911,7 +4930,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -4931,7 +4950,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4966,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -4963,7 +4982,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +4998,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -4995,7 +5014,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -5011,7 +5030,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -5027,7 +5046,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -5043,7 +5062,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -5059,7 +5078,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -5075,7 +5094,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5093,7 +5112,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -5109,7 +5128,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -5125,7 +5144,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -5141,7 +5160,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -5159,7 +5178,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -5175,7 +5194,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -6207,16 +6226,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6267,7 +6286,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -6287,7 +6306,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -6303,7 +6322,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -6319,7 +6338,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -6335,7 +6354,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6351,7 +6370,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -6367,7 +6386,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -6383,7 +6402,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -6399,7 +6418,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -6415,7 +6434,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -6431,7 +6450,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -6447,7 +6466,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6465,7 +6484,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -6481,7 +6500,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -6497,7 +6516,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -6513,7 +6532,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -6531,7 +6550,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -6547,7 +6566,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19110" windowHeight="7530" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -164,9 +164,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,15 +178,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,8 +231,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,24 +245,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,37 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +284,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -328,19 +328,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,25 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,49 +412,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,37 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,31 +478,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,7 +619,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,7 +658,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,21 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -679,21 +694,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,136 +717,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1237,19 +1237,19 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1661,7 +1661,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1671,7 +1671,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1681,7 +1681,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1691,7 +1691,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1701,7 +1701,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1711,7 +1711,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1721,7 +1721,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1731,7 +1731,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1741,7 +1741,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1751,7 +1751,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1761,7 +1761,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1771,7 +1771,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1781,7 +1781,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1791,7 +1791,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1801,7 +1801,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1811,7 +1811,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1821,7 +1821,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1831,7 +1831,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1841,7 +1841,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1851,7 +1851,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1861,7 +1861,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1871,7 +1871,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1881,7 +1881,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1891,7 +1891,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1901,7 +1901,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1911,7 +1911,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1921,7 +1921,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1931,7 +1931,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1941,7 +1941,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1951,7 +1951,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1961,7 +1961,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1971,7 +1971,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1981,7 +1981,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -1991,7 +1991,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2001,7 +2001,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2011,7 +2011,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2021,7 +2021,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2031,7 +2031,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2041,7 +2041,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2051,7 +2051,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2061,7 +2061,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2071,7 +2071,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2081,7 +2081,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2091,7 +2091,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2101,7 +2101,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2111,7 +2111,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2121,7 +2121,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2131,7 +2131,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2141,7 +2141,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2151,7 +2151,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2161,7 +2161,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2171,7 +2171,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2181,7 +2181,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -2191,7 +2191,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -2201,7 +2201,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -2211,7 +2211,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -2221,7 +2221,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -2231,7 +2231,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -2241,7 +2241,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2251,7 +2251,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2261,7 +2261,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2271,7 +2271,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2281,7 +2281,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2291,7 +2291,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2301,7 +2301,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2311,7 +2311,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2321,7 +2321,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2331,7 +2331,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2341,7 +2341,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2351,7 +2351,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2361,7 +2361,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2371,7 +2371,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2381,7 +2381,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2391,7 +2391,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2401,7 +2401,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2411,7 +2411,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2421,7 +2421,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2431,7 +2431,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2441,7 +2441,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2451,7 +2451,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2461,7 +2461,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2471,7 +2471,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2481,7 +2481,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2491,7 +2491,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2501,7 +2501,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2511,7 +2511,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2521,7 +2521,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2531,7 +2531,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2541,7 +2541,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2551,7 +2551,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2561,7 +2561,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2571,7 +2571,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2581,7 +2581,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2591,7 +2591,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2601,16 +2601,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -2636,23 +2636,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -2734,23 +2734,25 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>43664</v>
+      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2766,7 +2768,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -2782,7 +2784,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2798,7 +2800,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -2814,7 +2816,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -2830,7 +2832,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -2846,7 +2848,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -2862,7 +2864,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -2882,7 +2884,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -2902,7 +2904,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -2920,7 +2922,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -2936,7 +2938,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -2956,7 +2958,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -2976,7 +2978,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -2994,7 +2996,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -3014,7 +3016,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -3034,7 +3036,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -3050,7 +3052,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3060,7 +3062,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3070,7 +3072,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3080,7 +3082,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3090,7 +3092,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3100,7 +3102,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3110,7 +3112,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3120,7 +3122,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3130,7 +3132,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3140,7 +3142,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3150,7 +3152,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3160,7 +3162,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3170,7 +3172,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3180,7 +3182,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3190,7 +3192,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3200,7 +3202,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3210,7 +3212,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3220,7 +3222,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3230,7 +3232,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3240,7 +3242,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3250,7 +3252,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3260,7 +3262,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3270,7 +3272,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3280,7 +3282,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3290,7 +3292,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3300,7 +3302,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3310,7 +3312,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -3320,7 +3322,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -3330,7 +3332,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -3340,7 +3342,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -3350,7 +3352,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -3360,7 +3362,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3370,7 +3372,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3380,7 +3382,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3390,7 +3392,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3400,7 +3402,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3410,7 +3412,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3420,7 +3422,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3430,7 +3432,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3440,7 +3442,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3450,7 +3452,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3460,7 +3462,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3470,7 +3472,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3480,7 +3482,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3490,7 +3492,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3500,7 +3502,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3510,7 +3512,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3520,7 +3522,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3530,7 +3532,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3540,7 +3542,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3550,7 +3552,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3560,7 +3562,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3570,7 +3572,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3580,7 +3582,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3590,7 +3592,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3600,7 +3602,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3610,7 +3612,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3620,7 +3622,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3630,7 +3632,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3640,7 +3642,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3650,7 +3652,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3660,7 +3662,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3670,7 +3672,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3680,7 +3682,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3690,7 +3692,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3700,7 +3702,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3710,7 +3712,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -3720,7 +3722,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -3730,7 +3732,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3740,7 +3742,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3750,7 +3752,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -3760,7 +3762,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -3770,7 +3772,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -3780,7 +3782,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -3790,7 +3792,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -3800,7 +3802,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -3810,7 +3812,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -3820,7 +3822,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -3830,7 +3832,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -3840,7 +3842,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -3850,7 +3852,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -3860,7 +3862,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -3870,7 +3872,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3880,7 +3882,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -3890,7 +3892,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -3900,7 +3902,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3910,7 +3912,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3920,7 +3922,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -3930,7 +3932,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3940,7 +3942,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -3950,7 +3952,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -3960,7 +3962,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -3970,7 +3972,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -3980,7 +3982,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -3990,7 +3992,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4000,16 +4002,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -4039,19 +4041,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4111,7 +4113,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4133,7 +4135,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -4153,7 +4155,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -4169,7 +4171,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -4185,7 +4187,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -4201,7 +4203,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -4217,7 +4219,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -4233,7 +4235,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -4249,7 +4251,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -4265,7 +4267,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -4285,7 +4287,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -4305,7 +4307,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -4323,7 +4325,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -4339,7 +4341,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -4359,7 +4361,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -4379,7 +4381,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -4397,7 +4399,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -4417,7 +4419,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -4437,7 +4439,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -4453,7 +4455,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4463,7 +4465,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4473,7 +4475,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -4483,7 +4485,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -4493,7 +4495,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4503,7 +4505,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4513,7 +4515,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4523,7 +4525,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -4533,7 +4535,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4543,7 +4545,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -4553,7 +4555,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4563,7 +4565,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4573,7 +4575,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4583,7 +4585,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -4593,7 +4595,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4603,7 +4605,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4613,7 +4615,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4623,7 +4625,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -4633,7 +4635,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4643,7 +4645,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4653,7 +4655,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4663,7 +4665,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4673,7 +4675,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4683,7 +4685,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -4693,7 +4695,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4703,7 +4705,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -4713,7 +4715,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4723,7 +4725,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4733,7 +4735,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4743,7 +4745,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4753,7 +4755,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4763,7 +4765,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -4773,7 +4775,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -4783,7 +4785,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4793,7 +4795,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -4803,7 +4805,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -4813,7 +4815,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -4823,7 +4825,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -4833,7 +4835,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -4843,7 +4845,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -4853,7 +4855,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -4863,7 +4865,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4873,7 +4875,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -4883,7 +4885,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -4893,7 +4895,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -4903,7 +4905,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -4913,7 +4915,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -4923,7 +4925,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -4933,7 +4935,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -4943,7 +4945,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -4953,7 +4955,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -4963,7 +4965,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -4973,7 +4975,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -4983,7 +4985,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -4993,7 +4995,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -5003,7 +5005,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -5013,7 +5015,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -5023,7 +5025,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -5033,7 +5035,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -5043,7 +5045,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -5053,7 +5055,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -5063,7 +5065,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -5073,7 +5075,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -5083,7 +5085,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -5093,7 +5095,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -5103,7 +5105,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -5113,7 +5115,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -5123,7 +5125,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -5133,7 +5135,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -5143,7 +5145,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -5153,7 +5155,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -5163,7 +5165,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -5173,7 +5175,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -5183,7 +5185,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -5193,7 +5195,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -5203,7 +5205,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -5213,7 +5215,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -5223,7 +5225,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -5233,7 +5235,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -5243,7 +5245,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -5253,7 +5255,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -5263,7 +5265,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -5273,7 +5275,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -5283,7 +5285,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -5293,7 +5295,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -5303,7 +5305,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -5313,7 +5315,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5323,7 +5325,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -5333,7 +5335,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -5343,7 +5345,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -5353,7 +5355,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5363,7 +5365,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5373,7 +5375,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5383,7 +5385,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5393,7 +5395,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -5403,16 +5405,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -5442,19 +5444,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5514,7 +5516,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -5536,7 +5538,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -5556,7 +5558,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -5572,7 +5574,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -5588,7 +5590,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -5604,7 +5606,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -5620,7 +5622,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -5636,7 +5638,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -5652,7 +5654,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -5668,7 +5670,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -5684,7 +5686,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -5700,7 +5702,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -5718,7 +5720,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -5734,7 +5736,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -5750,7 +5752,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -5766,7 +5768,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -5784,7 +5786,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -5800,7 +5802,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -5816,7 +5818,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -5832,7 +5834,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -5842,7 +5844,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -5852,7 +5854,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5862,7 +5864,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5872,7 +5874,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -5882,7 +5884,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -5892,7 +5894,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5902,7 +5904,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5912,7 +5914,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5922,7 +5924,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5932,7 +5934,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5942,7 +5944,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5952,7 +5954,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5962,7 +5964,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5972,7 +5974,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5982,7 +5984,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5992,7 +5994,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6002,7 +6004,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6012,7 +6014,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6022,7 +6024,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6032,7 +6034,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6042,7 +6044,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6052,7 +6054,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6062,7 +6064,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6072,7 +6074,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6082,7 +6084,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6092,7 +6094,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6102,7 +6104,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6112,7 +6114,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6122,7 +6124,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6132,7 +6134,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6142,7 +6144,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6152,7 +6154,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6162,7 +6164,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6172,7 +6174,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6182,7 +6184,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6192,7 +6194,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -6202,7 +6204,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -6212,7 +6214,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -6222,7 +6224,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -6232,7 +6234,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -6242,7 +6244,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -6252,7 +6254,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -6262,7 +6264,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -6272,7 +6274,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -6282,7 +6284,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -6292,7 +6294,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -6302,7 +6304,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -6312,7 +6314,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -6322,7 +6324,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -6332,7 +6334,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -6342,7 +6344,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -6352,7 +6354,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -6362,7 +6364,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -6372,7 +6374,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -6382,7 +6384,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -6392,7 +6394,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -6402,7 +6404,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -6412,7 +6414,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -6422,7 +6424,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -6432,7 +6434,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -6442,7 +6444,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -6452,7 +6454,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -6462,7 +6464,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -6472,7 +6474,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -6482,7 +6484,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -6492,7 +6494,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -6502,7 +6504,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -6512,7 +6514,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -6522,7 +6524,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -6532,7 +6534,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -6542,7 +6544,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -6552,7 +6554,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -6562,7 +6564,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -6572,7 +6574,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -6582,7 +6584,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -6592,7 +6594,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -6602,7 +6604,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -6612,7 +6614,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -6622,7 +6624,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -6632,7 +6634,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -6642,7 +6644,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -6652,7 +6654,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -6662,7 +6664,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -6672,7 +6674,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -6682,7 +6684,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -6692,7 +6694,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -6702,7 +6704,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -6712,7 +6714,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -6722,7 +6724,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -6732,7 +6734,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -6742,7 +6744,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -6752,7 +6754,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -6762,7 +6764,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -6772,7 +6774,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -6782,16 +6784,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -6817,23 +6819,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6893,7 +6895,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="16.8" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -6913,7 +6915,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="16.8" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -6931,7 +6933,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="16.8" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -6947,7 +6949,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -6965,7 +6967,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="16.8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -6983,7 +6985,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="16.8" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -6999,7 +7001,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="16.8" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -7015,7 +7017,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="16.8" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -7031,7 +7033,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="16.8" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -7047,7 +7049,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="16.8" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -7063,7 +7065,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="16.8" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -7079,7 +7081,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="16.8" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -7097,7 +7099,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="16.8" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -7113,7 +7115,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="16.8" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -7129,7 +7131,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="16.8" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -7145,7 +7147,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="16.8" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -7163,7 +7165,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="16.8" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -7179,7 +7181,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="16.8" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -7195,7 +7197,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="16.8" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -7211,7 +7213,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" ht="15.6" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7221,7 +7223,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" ht="15.6" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7231,7 +7233,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" ht="15.6" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7241,7 +7243,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" ht="15.6" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -7251,7 +7253,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" ht="15.6" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7261,7 +7263,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" ht="15.6" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -7271,7 +7273,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" ht="15.6" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -7281,7 +7283,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -7291,7 +7293,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" ht="15.6" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -7301,7 +7303,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -7311,7 +7313,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7321,7 +7323,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7331,7 +7333,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7341,7 +7343,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" ht="15.6" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -7351,7 +7353,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" ht="15.6" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -7361,7 +7363,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" ht="15.6" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -7371,7 +7373,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" ht="15.6" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7381,7 +7383,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" ht="15.6" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7391,7 +7393,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" ht="15.6" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7401,7 +7403,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" ht="15.6" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -7411,7 +7413,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" ht="15.6" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7421,7 +7423,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" ht="15.6" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -7431,7 +7433,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" ht="15.6" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7441,7 +7443,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" ht="15.6" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -7451,7 +7453,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" ht="15.6" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7461,7 +7463,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" ht="15.6" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7471,7 +7473,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" ht="15.6" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -7481,7 +7483,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" ht="15.6" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -7491,7 +7493,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" ht="15.6" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -7501,7 +7503,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" ht="15.6" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -7511,7 +7513,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" ht="15.6" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -7521,7 +7523,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" ht="15.6" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -7531,7 +7533,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" ht="15.6" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -7541,7 +7543,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" ht="15.6" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -7551,7 +7553,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" ht="15.6" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -7561,7 +7563,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" ht="15.6" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -7571,7 +7573,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" ht="15.6" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -7581,7 +7583,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" ht="15.6" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -7591,7 +7593,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" ht="15.6" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -7601,7 +7603,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" ht="15.6" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -7611,7 +7613,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" ht="15.6" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -7621,7 +7623,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" ht="15.6" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -7631,7 +7633,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" ht="15.6" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -7641,7 +7643,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" ht="15.6" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -7651,7 +7653,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" ht="15.6" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -7661,7 +7663,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" ht="15.6" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -7671,7 +7673,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" ht="15.6" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -7681,7 +7683,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" ht="15.6" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -7691,7 +7693,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" ht="15.6" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -7701,7 +7703,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" ht="15.6" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -7711,7 +7713,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" ht="15.6" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -7721,7 +7723,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" ht="15.6" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -7731,7 +7733,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" ht="15.6" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -7741,7 +7743,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" ht="15.6" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -7751,7 +7753,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" ht="15.6" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -7761,7 +7763,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" ht="15.6" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -7771,7 +7773,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -7781,7 +7783,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -7791,7 +7793,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -7801,7 +7803,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -7811,7 +7813,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -7821,7 +7823,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -7831,7 +7833,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -7841,7 +7843,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -7851,7 +7853,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -7861,7 +7863,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -7871,7 +7873,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -7881,7 +7883,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -7891,7 +7893,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -7901,7 +7903,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -7911,7 +7913,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -7921,7 +7923,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -7931,7 +7933,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -7941,7 +7943,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -7951,7 +7953,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -7961,7 +7963,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -7971,7 +7973,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -7981,7 +7983,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -7991,7 +7993,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -8001,7 +8003,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -8011,7 +8013,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -8021,7 +8023,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -8031,7 +8033,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -8041,7 +8043,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -8051,7 +8053,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -8061,7 +8063,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -8071,7 +8073,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -8081,7 +8083,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -8091,7 +8093,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -8101,7 +8103,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -8111,7 +8113,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -8121,7 +8123,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -8131,7 +8133,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -8141,7 +8143,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -8151,7 +8153,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -8161,16 +8163,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" ht="15.6" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" ht="15.6" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" ht="15.6" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" ht="15.6" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1806A44-BF3E-4F65-AA12-502B50F86F9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A42D3-3518-40CC-833B-8923C51B2AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7956" yWindow="456" windowWidth="14076" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -730,13 +730,17 @@
         <v>14</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6">
+        <v>43664</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43664</v>
+      </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -3428,7 +3432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A42D3-3518-40CC-833B-8923C51B2AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB9C85-4F71-4F41-A70B-801394E6B0EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7956" yWindow="456" windowWidth="14076" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2032,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3432,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3596,13 +3596,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12">
+        <v>43666</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43666</v>
+      </c>
       <c r="F8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" s="5"/>
     </row>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A42D3-3518-40CC-833B-8923C51B2AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6500C4-F2C9-4F47-B34A-30104D0145CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -751,9 +751,11 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>43666</v>
+      </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -767,9 +769,11 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>43666</v>
+      </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -979,10 +983,10 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="E19" s="6">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F7CA2-DDA8-447B-B528-A69876F5A73E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9B97D-DDB6-4E34-9B6B-59A0E1813EB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -750,15 +750,17 @@
         <v>16</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>43666</v>
+      </c>
       <c r="E6" s="6">
         <v>43666</v>
       </c>
       <c r="F6" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59A6A7-DCD3-4D41-A077-41A526090FDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1CB59C-4940-4E43-8D27-0200F74CFD4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7956" yWindow="456" windowWidth="14076" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3445,7 +3445,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3649,10 +3649,10 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="12">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="E10" s="12">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="F10" s="15">
         <v>0.5</v>
@@ -3742,10 +3742,14 @@
         <v>15</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="12">
+        <v>43667</v>
+      </c>
+      <c r="E15" s="12">
+        <v>43667</v>
+      </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>17</v>
@@ -6248,7 +6252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="30">
   <si>
     <t>进度表-宿舍管理的设计与实现</t>
   </si>
@@ -113,16 +113,19 @@
   <si>
     <t>后期优化</t>
   </si>
+  <si>
+    <t>2019/718</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -171,8 +174,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +206,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,52 +247,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,22 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -306,11 +295,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -328,7 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,73 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,97 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,13 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,8 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,24 +644,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,30 +700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -705,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,16 +720,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,118 +738,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -6863,8 +6866,8 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6984,7 +6987,9 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="9">
         <v>0.9</v>
       </c>
@@ -7036,7 +7041,9 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>43666</v>
+      </c>
       <c r="F9" s="9">
         <v>0.6</v>
       </c>
@@ -7052,7 +7059,9 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>43666</v>
+      </c>
       <c r="F10" s="9">
         <v>0.5</v>
       </c>
@@ -7084,9 +7093,11 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <v>43666</v>
+      </c>
       <c r="F12" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -7100,7 +7111,9 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7">
+        <v>43666</v>
+      </c>
       <c r="F13" s="9">
         <v>1</v>
       </c>
@@ -7116,7 +7129,9 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <v>43666</v>
+      </c>
       <c r="F14" s="9">
         <v>0.9</v>
       </c>
@@ -7134,7 +7149,9 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7">
+        <v>43666</v>
+      </c>
       <c r="F15" s="9">
         <v>0.8</v>
       </c>
@@ -7150,7 +7167,9 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7">
+        <v>43666</v>
+      </c>
       <c r="F16" s="9">
         <v>0.7</v>
       </c>
@@ -7166,7 +7185,9 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7">
+        <v>43666</v>
+      </c>
       <c r="F17" s="9">
         <v>1</v>
       </c>
@@ -7182,7 +7203,9 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>43666</v>
+      </c>
       <c r="F18" s="9">
         <v>0.9</v>
       </c>
@@ -7200,7 +7223,9 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7">
+        <v>43667</v>
+      </c>
       <c r="F19" s="9">
         <v>1</v>
       </c>
@@ -7216,7 +7241,9 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7">
+        <v>43667</v>
+      </c>
       <c r="F20" s="9">
         <v>1</v>
       </c>
@@ -7232,7 +7259,9 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7">
+        <v>43667</v>
+      </c>
       <c r="F21" s="9">
         <v>0.9</v>
       </c>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19110" windowHeight="7530" activeTab="4"/>
+    <workbookView windowWidth="23028" windowHeight="9947" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -168,65 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,9 +189,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +238,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,10 +289,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,7 +331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +355,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,43 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +439,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,73 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,19 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,6 +603,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,8 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,15 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,30 +700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +720,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -1236,23 +1236,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="15.6" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="15.6" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="15.6" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="15.6" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="15.6" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="15.6" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1674,7 +1674,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1684,7 +1684,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1694,7 +1694,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1704,7 +1704,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1714,7 +1714,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1724,7 +1724,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1734,7 +1734,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1744,7 +1744,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1754,7 +1754,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1764,7 +1764,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1774,7 +1774,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1784,7 +1784,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1794,7 +1794,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1804,7 +1804,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1814,7 +1814,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1824,7 +1824,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1834,7 +1834,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1844,7 +1844,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1854,7 +1854,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1864,7 +1864,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1874,7 +1874,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1884,7 +1884,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1894,7 +1894,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1904,7 +1904,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1914,7 +1914,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1924,7 +1924,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1934,7 +1934,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1944,7 +1944,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1954,7 +1954,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1964,7 +1964,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1974,7 +1974,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1984,7 +1984,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1994,7 +1994,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2004,7 +2004,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2014,7 +2014,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2024,7 +2024,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2034,7 +2034,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2044,7 +2044,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2054,7 +2054,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2064,7 +2064,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2074,7 +2074,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2084,7 +2084,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2094,7 +2094,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2104,7 +2104,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2114,7 +2114,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2124,7 +2124,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2134,7 +2134,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2144,7 +2144,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2154,7 +2154,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2164,7 +2164,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2174,7 +2174,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2184,7 +2184,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2194,7 +2194,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -2204,7 +2204,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -2214,7 +2214,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -2224,7 +2224,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -2234,7 +2234,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -2244,7 +2244,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -2254,7 +2254,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2264,7 +2264,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2274,7 +2274,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2284,7 +2284,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2294,7 +2294,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2304,7 +2304,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2314,7 +2314,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2324,7 +2324,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2334,7 +2334,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2344,7 +2344,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2354,7 +2354,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2364,7 +2364,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2374,7 +2374,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2384,7 +2384,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2394,7 +2394,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2404,7 +2404,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2414,7 +2414,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2424,7 +2424,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2434,7 +2434,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2444,7 +2444,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2454,7 +2454,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2464,7 +2464,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2474,7 +2474,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2484,7 +2484,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2494,7 +2494,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2504,7 +2504,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2514,7 +2514,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2524,7 +2524,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2534,7 +2534,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2544,7 +2544,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2554,7 +2554,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2564,7 +2564,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2574,7 +2574,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2584,7 +2584,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2594,7 +2594,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2604,7 +2604,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2614,16 +2614,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -2653,19 +2653,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="15.6" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="15.6" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="15.6" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="15.6" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="15.6" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="15.6" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3081,7 +3081,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3091,7 +3091,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3101,7 +3101,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3111,7 +3111,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3121,7 +3121,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3131,7 +3131,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3141,7 +3141,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3151,7 +3151,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3161,7 +3161,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3171,7 +3171,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3181,7 +3181,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3191,7 +3191,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3201,7 +3201,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3211,7 +3211,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3221,7 +3221,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3231,7 +3231,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3241,7 +3241,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3251,7 +3251,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3261,7 +3261,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3271,7 +3271,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3281,7 +3281,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3291,7 +3291,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3301,7 +3301,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3311,7 +3311,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3321,7 +3321,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3331,7 +3331,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -3341,7 +3341,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -3351,7 +3351,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -3361,7 +3361,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -3371,7 +3371,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -3381,7 +3381,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3391,7 +3391,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3401,7 +3401,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3411,7 +3411,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3421,7 +3421,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3431,7 +3431,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3441,7 +3441,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3451,7 +3451,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -3461,7 +3461,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -3471,7 +3471,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3481,7 +3481,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -3491,7 +3491,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3501,7 +3501,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3511,7 +3511,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3521,7 +3521,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3531,7 +3531,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3541,7 +3541,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3551,7 +3551,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3561,7 +3561,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3571,7 +3571,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3581,7 +3581,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3591,7 +3591,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3601,7 +3601,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3611,7 +3611,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3621,7 +3621,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3631,7 +3631,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3641,7 +3641,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3651,7 +3651,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3661,7 +3661,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3671,7 +3671,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3681,7 +3681,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -3691,7 +3691,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3701,7 +3701,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3711,7 +3711,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -3721,7 +3721,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3731,7 +3731,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -3741,7 +3741,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -3751,7 +3751,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -3761,7 +3761,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -3771,7 +3771,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -3781,7 +3781,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -3791,7 +3791,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -3801,7 +3801,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -3811,7 +3811,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -3821,7 +3821,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -3831,7 +3831,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -3841,7 +3841,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -3851,7 +3851,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -3861,7 +3861,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -3871,7 +3871,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -3881,7 +3881,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -3891,7 +3891,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3901,7 +3901,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -3911,7 +3911,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -3921,7 +3921,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3931,7 +3931,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3941,7 +3941,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -3951,7 +3951,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3961,7 +3961,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -3971,7 +3971,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -3981,7 +3981,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -3991,7 +3991,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -4001,7 +4001,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -4011,7 +4011,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -4021,16 +4021,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -4060,19 +4060,19 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="15.6" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="15.6" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="15.6" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="15.6" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="15.6" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="15.6" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4512,7 +4512,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4522,7 +4522,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -4532,7 +4532,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -4542,7 +4542,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4552,7 +4552,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4562,7 +4562,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4572,7 +4572,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -4582,7 +4582,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4592,7 +4592,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -4602,7 +4602,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4612,7 +4612,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4622,7 +4622,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4632,7 +4632,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -4642,7 +4642,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4652,7 +4652,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4662,7 +4662,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4672,7 +4672,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -4682,7 +4682,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4692,7 +4692,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4702,7 +4702,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4712,7 +4712,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4722,7 +4722,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4732,7 +4732,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -4742,7 +4742,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4752,7 +4752,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -4762,7 +4762,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4772,7 +4772,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4782,7 +4782,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4792,7 +4792,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4802,7 +4802,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4812,7 +4812,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -4822,7 +4822,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -4832,7 +4832,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4842,7 +4842,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -4852,7 +4852,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -4862,7 +4862,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -4872,7 +4872,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -4882,7 +4882,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -4892,7 +4892,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -4902,7 +4902,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -4912,7 +4912,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4922,7 +4922,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -4932,7 +4932,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -4942,7 +4942,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -4952,7 +4952,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -4962,7 +4962,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -4972,7 +4972,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -4982,7 +4982,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -4992,7 +4992,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -5002,7 +5002,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -5012,7 +5012,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -5022,7 +5022,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -5032,7 +5032,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -5042,7 +5042,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -5052,7 +5052,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -5062,7 +5062,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -5072,7 +5072,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -5082,7 +5082,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -5092,7 +5092,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -5102,7 +5102,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -5112,7 +5112,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -5122,7 +5122,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -5132,7 +5132,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -5142,7 +5142,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -5152,7 +5152,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -5162,7 +5162,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -5172,7 +5172,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -5182,7 +5182,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -5192,7 +5192,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -5202,7 +5202,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -5212,7 +5212,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -5222,7 +5222,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -5232,7 +5232,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -5242,7 +5242,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -5252,7 +5252,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -5262,7 +5262,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -5272,7 +5272,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -5282,7 +5282,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -5292,7 +5292,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -5302,7 +5302,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -5312,7 +5312,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -5322,7 +5322,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -5332,7 +5332,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -5342,7 +5342,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -5352,7 +5352,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -5362,7 +5362,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5372,7 +5372,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -5382,7 +5382,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -5392,7 +5392,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -5402,7 +5402,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5412,7 +5412,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5422,7 +5422,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5432,7 +5432,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5442,7 +5442,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -5452,16 +5452,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -5487,23 +5487,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -5605,39 +5605,43 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>43666</v>
+      </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>43667</v>
+      </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -5653,7 +5657,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -5669,7 +5673,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -5685,7 +5689,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -5701,7 +5705,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -5717,39 +5721,47 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7">
+        <v>43664</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43665</v>
+      </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7">
+        <v>43664</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43665</v>
+      </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -5767,7 +5779,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -5783,7 +5795,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="15.6" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -5799,7 +5811,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="15.6" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -5815,7 +5827,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="15.6" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -5823,49 +5835,61 @@
         <v>27</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="7">
+        <v>43666</v>
+      </c>
+      <c r="E19" s="7">
+        <v>43668</v>
+      </c>
       <c r="F19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="15.6" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="7">
+        <v>43666</v>
+      </c>
+      <c r="E20" s="7">
+        <v>43668</v>
+      </c>
       <c r="F20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="15.6" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7">
+        <v>43667</v>
+      </c>
+      <c r="E21" s="7">
+        <v>43668</v>
+      </c>
       <c r="F21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="15.6" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -5881,7 +5905,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -5891,7 +5915,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -5901,7 +5925,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5911,7 +5935,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5921,7 +5945,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -5931,7 +5955,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -5941,7 +5965,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5951,7 +5975,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5961,7 +5985,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5971,7 +5995,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5981,7 +6005,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5991,7 +6015,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6001,7 +6025,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6011,7 +6035,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6021,7 +6045,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6031,7 +6055,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6041,7 +6065,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -6051,7 +6075,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -6061,7 +6085,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6071,7 +6095,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6081,7 +6105,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -6091,7 +6115,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -6101,7 +6125,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -6111,7 +6135,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -6121,7 +6145,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6131,7 +6155,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -6141,7 +6165,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -6151,7 +6175,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -6161,7 +6185,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -6171,7 +6195,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -6181,7 +6205,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -6191,7 +6215,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6201,7 +6225,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -6211,7 +6235,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -6221,7 +6245,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -6231,7 +6255,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -6241,7 +6265,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -6251,7 +6275,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -6261,7 +6285,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -6271,7 +6295,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -6281,7 +6305,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -6291,7 +6315,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -6301,7 +6325,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -6311,7 +6335,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -6321,7 +6345,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -6331,7 +6355,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -6341,7 +6365,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -6351,7 +6375,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -6361,7 +6385,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -6371,7 +6395,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -6381,7 +6405,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -6391,7 +6415,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -6401,7 +6425,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -6411,7 +6435,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -6421,7 +6445,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -6431,7 +6455,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -6441,7 +6465,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -6451,7 +6475,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -6461,7 +6485,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -6471,7 +6495,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -6481,7 +6505,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -6491,7 +6515,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -6501,7 +6525,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -6511,7 +6535,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -6521,7 +6545,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -6531,7 +6555,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -6541,7 +6565,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -6551,7 +6575,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -6561,7 +6585,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -6571,7 +6595,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -6581,7 +6605,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -6591,7 +6615,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -6601,7 +6625,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -6611,7 +6635,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -6621,7 +6645,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -6631,7 +6655,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -6641,7 +6665,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -6651,7 +6675,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -6661,7 +6685,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -6671,7 +6695,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -6681,7 +6705,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -6691,7 +6715,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -6701,7 +6725,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -6711,7 +6735,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -6721,7 +6745,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -6731,7 +6755,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -6741,7 +6765,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -6751,7 +6775,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -6761,7 +6785,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -6771,7 +6795,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -6781,7 +6805,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -6791,7 +6815,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -6801,7 +6825,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -6811,7 +6835,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -6821,7 +6845,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -6831,16 +6855,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>
@@ -6866,23 +6890,23 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="49.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33.75" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="32.4" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6942,7 +6966,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -6962,7 +6986,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -6980,7 +7004,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -6998,7 +7022,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -7016,7 +7040,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -7034,7 +7058,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -7052,7 +7076,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -7070,7 +7094,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -7086,7 +7110,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="17.25" spans="1:8">
+    <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -7104,7 +7128,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>23</v>
@@ -7122,7 +7146,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -7140,7 +7164,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -7160,7 +7184,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -7178,7 +7202,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="17.25" spans="1:8">
+    <row r="17" ht="15.6" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -7196,7 +7220,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="17.25" spans="1:8">
+    <row r="18" ht="15.6" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>24</v>
@@ -7214,7 +7238,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="17.25" spans="1:8">
+    <row r="19" ht="15.6" spans="1:8">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -7234,7 +7258,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="17.25" spans="1:8">
+    <row r="20" ht="15.6" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
@@ -7252,7 +7276,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="17.25" spans="1:8">
+    <row r="21" ht="15.6" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>24</v>
@@ -7270,7 +7294,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="17.25" spans="1:8">
+    <row r="22" ht="15.6" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -7286,7 +7310,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" ht="16.5" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7296,7 +7320,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7306,7 +7330,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7316,7 +7340,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -7326,7 +7350,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7336,7 +7360,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -7346,7 +7370,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -7356,7 +7380,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -7366,7 +7390,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -7376,7 +7400,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -7386,7 +7410,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -7396,7 +7420,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -7406,7 +7430,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7416,7 +7440,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -7426,7 +7450,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -7436,7 +7460,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -7446,7 +7470,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7456,7 +7480,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7466,7 +7490,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7476,7 +7500,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -7486,7 +7510,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7496,7 +7520,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -7506,7 +7530,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7516,7 +7540,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -7526,7 +7550,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7536,7 +7560,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7546,7 +7570,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -7556,7 +7580,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -7566,7 +7590,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -7576,7 +7600,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -7586,7 +7610,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="16.5" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -7596,7 +7620,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -7606,7 +7630,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -7616,7 +7640,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -7626,7 +7650,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -7636,7 +7660,7 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -7646,7 +7670,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -7656,7 +7680,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -7666,7 +7690,7 @@
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -7676,7 +7700,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -7686,7 +7710,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -7696,7 +7720,7 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -7706,7 +7730,7 @@
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" ht="16.5" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -7716,7 +7740,7 @@
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -7726,7 +7750,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -7736,7 +7760,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -7746,7 +7770,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -7756,7 +7780,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -7766,7 +7790,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -7776,7 +7800,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -7786,7 +7810,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -7796,7 +7820,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -7806,7 +7830,7 @@
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -7816,7 +7840,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -7826,7 +7850,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -7836,7 +7860,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -7846,7 +7870,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -7856,7 +7880,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -7866,7 +7890,7 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -7876,7 +7900,7 @@
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -7886,7 +7910,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -7896,7 +7920,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -7906,7 +7930,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -7916,7 +7940,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -7926,7 +7950,7 @@
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -7936,7 +7960,7 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -7946,7 +7970,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -7956,7 +7980,7 @@
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -7966,7 +7990,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -7976,7 +8000,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -7986,7 +8010,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -7996,7 +8020,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -8006,7 +8030,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -8016,7 +8040,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -8026,7 +8050,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -8036,7 +8060,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -8046,7 +8070,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -8056,7 +8080,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -8066,7 +8090,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -8076,7 +8100,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -8086,7 +8110,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -8096,7 +8120,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -8106,7 +8130,7 @@
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -8116,7 +8140,7 @@
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -8126,7 +8150,7 @@
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -8136,7 +8160,7 @@
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -8146,7 +8170,7 @@
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -8156,7 +8180,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -8166,7 +8190,7 @@
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -8176,7 +8200,7 @@
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -8186,7 +8210,7 @@
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -8196,7 +8220,7 @@
       <c r="G113" s="14"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -8206,7 +8230,7 @@
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -8216,7 +8240,7 @@
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -8226,7 +8250,7 @@
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -8236,16 +8260,16 @@
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="2:2">
+    <row r="118" spans="2:2">
       <c r="B118" s="14"/>
     </row>
-    <row r="119" ht="16.5" spans="2:2">
+    <row r="119" spans="2:2">
       <c r="B119" s="14"/>
     </row>
-    <row r="120" ht="16.5" spans="2:2">
+    <row r="120" spans="2:2">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" ht="16.5" spans="2:2">
+    <row r="121" spans="2:2">
       <c r="B121" s="14"/>
     </row>
   </sheetData>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02258372-E2A9-4C01-BCB6-CE2C637C5ECB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48656BCE-2A0A-4C38-B4BF-A957EFBC109B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3468,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3659,7 +3659,7 @@
         <v>43666</v>
       </c>
       <c r="F9" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>17</v>
@@ -3767,13 +3767,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="12">
-        <v>43667</v>
+        <v>43668</v>
       </c>
       <c r="E15" s="12">
         <v>43667</v>
       </c>
       <c r="F15" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>17</v>
@@ -3786,10 +3786,14 @@
         <v>22</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="12">
+        <v>43668</v>
+      </c>
+      <c r="E16" s="12">
+        <v>43668</v>
+      </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>17</v>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48656BCE-2A0A-4C38-B4BF-A957EFBC109B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773AD5B0-734C-446C-8150-FBFAA97165BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -842,9 +842,11 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>43668</v>
+      </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>17</v>
@@ -3468,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEC196-94B5-4421-A6DB-C40CB80865B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C2859-EA7D-4FFB-87BA-1835553EFEFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -863,9 +863,11 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>43668</v>
+      </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>17</v>
@@ -2051,7 +2053,7 @@
     <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C2859-EA7D-4FFB-87BA-1835553EFEFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3BC1B-E183-4FEE-9937-9A8643C23F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="夏晨青" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$23:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卞虹霖!$G$24:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">黄之贤!$G$22:$G$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">夏晨青!$G$22:$G$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">赵檬!$G$22:$G$22</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="31">
   <si>
     <t>进度表-宿舍管理的设计与实现</t>
   </si>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>2019/718</t>
+  </si>
+  <si>
+    <t>学生迁出记录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,7 +291,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +341,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -649,16 +656,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -709,7 +716,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -731,7 +738,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -751,7 +758,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -771,7 +778,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -789,8 +796,8 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6"/>
@@ -807,8 +814,8 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
@@ -823,7 +830,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -839,7 +846,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -857,7 +864,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -875,7 +882,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -891,29 +898,27 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>43668</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>43663</v>
-      </c>
-      <c r="E14" s="6">
-        <v>43663</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
@@ -931,27 +936,31 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43663</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -965,29 +974,25 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>43663</v>
-      </c>
-      <c r="E18" s="6">
-        <v>43663</v>
-      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
@@ -1005,18 +1010,16 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="E20" s="6">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="F20" s="8">
         <v>1</v>
@@ -1027,16 +1030,18 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="E21" s="6">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="F21" s="8">
         <v>1</v>
@@ -1049,7 +1054,7 @@
     <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
@@ -1067,30 +1072,40 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E23" s="6">
+        <v>43663</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -1998,8 +2013,8 @@
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="12"/>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -2033,7 +2048,14 @@
       <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
       <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B120" s="11"/>
@@ -2043,18 +2065,21 @@
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B123" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2084,16 +2109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2144,7 +2169,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2166,7 +2191,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2211,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2231,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2249,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2240,7 +2265,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2256,7 +2281,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2272,7 +2297,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -2288,7 +2313,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2304,7 +2329,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -2324,7 +2349,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -2344,7 +2369,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2362,7 +2387,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2403,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +2423,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -2418,7 +2443,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2436,7 +2461,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -2456,7 +2481,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3492,16 +3517,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3552,7 +3577,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3574,7 +3599,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3594,7 +3619,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3614,7 +3639,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -3634,7 +3659,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -3654,7 +3679,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -3674,7 +3699,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -3694,7 +3719,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -3710,7 +3735,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -3726,7 +3751,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -3746,7 +3771,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -3766,7 +3791,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3788,7 +3813,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -3808,7 +3833,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -3828,7 +3853,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3848,7 +3873,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3870,7 +3895,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -3890,7 +3915,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -4926,16 +4951,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4986,7 +5011,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -5008,7 +5033,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -5028,7 +5053,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5071,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -5064,7 +5089,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -5080,7 +5105,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -5096,7 +5121,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -5112,7 +5137,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -5128,7 +5153,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -5144,7 +5169,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -5164,7 +5189,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -5184,7 +5209,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5202,7 +5227,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -5218,7 +5243,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -5234,7 +5259,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -5250,7 +5275,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -5272,7 +5297,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -5292,7 +5317,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -6328,16 +6353,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6388,7 +6413,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -6408,7 +6433,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -6426,7 +6451,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6444,7 +6469,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6462,7 +6487,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6480,7 +6505,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -6498,7 +6523,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -6516,7 +6541,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -6534,7 +6559,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -6552,7 +6577,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -6570,7 +6595,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -6588,7 +6613,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6608,7 +6633,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -6626,7 +6651,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -6644,7 +6669,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -6662,7 +6687,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -6682,7 +6707,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -6700,7 +6725,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>

--- a/宿舍管理-卞虹霖.xlsx
+++ b/宿舍管理-卞虹霖.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\dormitory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhou\Desktop\dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3BC1B-E183-4FEE-9937-9A8643C23F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3619B6-E232-4686-AF01-376BB318842E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卞虹霖" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">黄之贤!$G$22:$G$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">夏晨青!$G$22:$G$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">赵檬!$G$22:$G$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">周文伟!$G$22:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">周文伟!$G$23:$G$23</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="32">
   <si>
     <t>进度表-宿舍管理的设计与实现</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>学生迁出记录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁出记录</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +295,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +345,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -656,16 +663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -716,7 +723,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -738,7 +745,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -758,7 +765,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -778,7 +785,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -796,8 +803,8 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6"/>
@@ -814,8 +821,8 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
@@ -830,7 +837,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -846,7 +853,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -864,7 +871,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -882,7 +889,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -898,7 +905,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
@@ -916,7 +923,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -936,7 +943,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
@@ -956,7 +963,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -974,7 +981,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -990,7 +997,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1010,7 +1017,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1037,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1052,7 +1059,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1079,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
@@ -2109,16 +2116,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2169,7 +2176,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2191,7 +2198,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -2211,7 +2218,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2231,7 +2238,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2249,7 +2256,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2265,7 +2272,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2288,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2297,7 +2304,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -2313,7 +2320,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2336,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -2349,7 +2356,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -2369,7 +2376,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2387,7 +2394,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2403,7 +2410,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2430,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -2443,7 +2450,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2461,7 +2468,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -2481,7 +2488,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3498,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3517,16 +3524,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3577,7 +3584,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3599,7 +3606,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +3626,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3639,7 +3646,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -3659,7 +3666,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -3679,7 +3686,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -3694,73 +3701,81 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="13">
-        <v>43667</v>
+        <v>43668</v>
       </c>
       <c r="E10" s="13">
         <v>43667</v>
       </c>
       <c r="F10" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="13">
+        <v>43669</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43669</v>
+      </c>
       <c r="F11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="13">
+        <v>43669</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43669</v>
+      </c>
       <c r="F12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
+      <c r="A13" s="20"/>
+      <c r="B13" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="13">
-        <v>43663</v>
+        <v>43669</v>
       </c>
       <c r="E13" s="13">
-        <v>43663</v>
+        <v>43669</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -3768,12 +3783,12 @@
       <c r="G13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="13">
@@ -3791,58 +3806,58 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="13">
-        <v>43668</v>
+        <v>43663</v>
       </c>
       <c r="E15" s="13">
-        <v>43667</v>
+        <v>43663</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="13">
         <v>43668</v>
       </c>
       <c r="E16" s="13">
-        <v>43668</v>
+        <v>43667</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="13">
-        <v>43663</v>
+        <v>43668</v>
       </c>
       <c r="E17" s="13">
-        <v>43663</v>
+        <v>43668</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
@@ -3855,7 +3870,7 @@
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="13">
@@ -3873,18 +3888,16 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="13">
-        <v>43667</v>
+        <v>43663</v>
       </c>
       <c r="E19" s="13">
-        <v>43667</v>
+        <v>43663</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
@@ -3895,16 +3908,18 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="13">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="E20" s="13">
-        <v>43663</v>
+        <v>43667</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
@@ -3917,7 +3932,7 @@
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="13">
@@ -3935,30 +3950,40 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13">
+        <v>43663</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43663</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -4866,8 +4891,8 @@
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="12"/>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -4901,7 +4926,14 @@
       <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
       <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="11"/>
@@ -4911,17 +4943,20 @@
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B122" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G22" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4951,16 +4986,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5011,7 +5046,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -5033,7 +5068,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -5053,7 +5088,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -5071,7 +5106,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -5089,7 +5124,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -5105,7 +5140,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -5121,7 +5156,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -5137,7 +5172,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -5153,7 +5188,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -5169,7 +5204,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -5189,7 +5224,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -5209,7 +5244,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5227,7 +5262,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -5243,7 +5278,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -5259,7 +5294,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -5275,7 +5310,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -5297,7 +5332,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -5317,7 +5352,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
@@ -6337,7 +6372,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6353,16 +6388,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6413,7 +6448,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -6433,7 +6468,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -6451,7 +6486,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6469,7 +6504,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6487,7 +6522,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6505,7 +6540,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -6523,7 +6558,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -6541,7 +6576,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -6559,7 +6594,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -6577,7 +6612,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -6595,7 +6630,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -6613,7 +6648,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6633,7 +6668,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -6651,7 +6686,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -6669,7 +6704,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -6687,7 +6722,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -6707,7 +6742,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -6725,7 +6760,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
